--- a/config_11.3/shoping_config.xlsx
+++ b/config_11.3/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1609">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6905,10 +6905,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi'","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"180万金币","10万小游戏币","水滴*5",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6937,18 +6933,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi'","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi'","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi'","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1800000,100000,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6987,37 +6971,71 @@
     <t>新人专享</t>
   </si>
   <si>
-    <t>200万金币,"冰冻*5","锁定*5","新人宝箱",</t>
-  </si>
-  <si>
-    <t>jing_bi,"prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
-  </si>
-  <si>
     <t>2000000,5,5,1,</t>
   </si>
   <si>
     <t>高级宝箱</t>
   </si>
   <si>
-    <t>580万金币,"冰冻*10","锁定*10","高级宝箱",</t>
-  </si>
-  <si>
-    <t>jing_bi,"prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
-  </si>
-  <si>
     <t>5800000,10,10,1,</t>
   </si>
   <si>
     <t>豪华宝箱</t>
   </si>
   <si>
-    <t>1280万金币,"冰冻*15","锁定*15","豪华宝箱",</t>
-  </si>
-  <si>
-    <t>jing_bi,"prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
-  </si>
-  <si>
     <t>12800000,15,15,1,</t>
+  </si>
+  <si>
+    <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10","高级宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1280万金币","冰冻*15","锁定*15","豪华宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9801,10 +9819,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W423" sqref="W423"/>
+      <selection pane="bottomRight" activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36525,13 +36543,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -36549,10 +36567,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -36593,13 +36611,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -36620,7 +36638,7 @@
         <v>1600</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -36661,13 +36679,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -36685,10 +36703,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -37284,10 +37302,10 @@
         <v>1566</v>
       </c>
       <c r="H434" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I434" s="54" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K434" s="54">
         <v>-31</v>
@@ -37305,10 +37323,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="54" t="s">
-        <v>1574</v>
+        <v>1605</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="V434" s="54" t="s">
         <v>551</v>
@@ -37349,10 +37367,10 @@
         <v>1568</v>
       </c>
       <c r="H435" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I435" s="54" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K435" s="54">
         <v>-31</v>
@@ -37370,10 +37388,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="54" t="s">
-        <v>1574</v>
+        <v>1606</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="V435" s="54" t="s">
         <v>551</v>
@@ -37414,10 +37432,10 @@
         <v>1567</v>
       </c>
       <c r="H436" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I436" s="54" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K436" s="54">
         <v>-31</v>
@@ -37435,10 +37453,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Q436" s="55" t="s">
         <v>1582</v>
-      </c>
-      <c r="Q436" s="55" t="s">
-        <v>1586</v>
       </c>
       <c r="V436" s="54" t="s">
         <v>551</v>
@@ -37479,10 +37497,10 @@
         <v>1569</v>
       </c>
       <c r="H437" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I437" s="54" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K437" s="54">
         <v>-31</v>
@@ -37500,10 +37518,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="54" t="s">
-        <v>1583</v>
+        <v>1603</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="V437" s="54" t="s">
         <v>551</v>
@@ -37544,10 +37562,10 @@
         <v>1570</v>
       </c>
       <c r="H438" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I438" s="54" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="K438" s="54">
         <v>-31</v>
@@ -37565,10 +37583,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="54" t="s">
-        <v>1582</v>
+        <v>1604</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="V438" s="54" t="s">
         <v>551</v>
@@ -37609,10 +37627,10 @@
         <v>1571</v>
       </c>
       <c r="H439" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I439" s="54" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="K439" s="54">
         <v>-31</v>
@@ -37630,10 +37648,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="54" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="V439" s="54" t="s">
         <v>551</v>
@@ -37674,10 +37692,10 @@
         <v>1572</v>
       </c>
       <c r="H440" s="54" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="I440" s="54" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K440" s="54">
         <v>-31</v>
@@ -37695,10 +37713,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="54" t="s">
-        <v>1584</v>
+        <v>1608</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="V440" s="54" t="s">
         <v>551</v>

--- a/config_11.3/shoping_config.xlsx
+++ b/config_11.3/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="1609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1606">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6661,22 +6661,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6714,30 +6698,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_web_chip_huafei",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6746,27 +6706,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6866,10 +6806,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>paotai</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7043,6 +6979,45 @@
   <si>
     <t>立冬福袋</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享</t>
+  </si>
+  <si>
+    <t>200万金币,"冰冻*5","锁定*5","新人宝箱",</t>
+  </si>
+  <si>
+    <t>jing_bi,"prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>580万金币,"冰冻*10","锁定*10","高级宝箱",</t>
+  </si>
+  <si>
+    <t>jing_bi,"prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>1280万金币,"冰冻*15","锁定*15","豪华宝箱",</t>
+  </si>
+  <si>
+    <t>jing_bi,"prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
   </si>
 </sst>
 </file>
@@ -7783,16 +7758,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9826,10 +9801,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="T419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C437" sqref="C437"/>
+      <selection pane="bottomRight" activeCell="W423" sqref="W423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35002,7 +34977,7 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="Q398" s="10" t="s">
         <v>1442</v>
@@ -35646,7 +35621,7 @@
         <v>1495</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1496</v>
@@ -36039,7 +36014,7 @@
         <v>1505</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36169,7 +36144,7 @@
         <v>1272</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="V416" s="6" t="s">
         <v>1512</v>
@@ -36305,7 +36280,7 @@
         <v>1274</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1280</v>
@@ -36373,7 +36348,7 @@
         <v>1275</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1280</v>
@@ -36441,7 +36416,7 @@
         <v>1276</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1280</v>
@@ -36503,13 +36478,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="Q421" s="39" t="s">
         <v>1520</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36524,7 +36499,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36550,13 +36525,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1521</v>
+        <v>1593</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1524</v>
+        <v>1594</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1531</v>
+        <v>1595</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -36574,13 +36549,13 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1563</v>
+        <v>1596</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1534</v>
+        <v>1597</v>
       </c>
       <c r="V422" s="6" t="s">
-        <v>1543</v>
+        <v>548</v>
       </c>
       <c r="W422" s="6">
         <v>99999999</v>
@@ -36593,12 +36568,6 @@
       </c>
       <c r="Z422" s="6">
         <v>51</v>
-      </c>
-      <c r="AA422" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB422" s="6" t="s">
-        <v>1539</v>
       </c>
       <c r="AG422" s="6">
         <v>1</v>
@@ -36624,13 +36593,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1522</v>
+        <v>1598</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1524</v>
+        <v>1594</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1532</v>
+        <v>1599</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -36648,13 +36617,13 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1563</v>
+        <v>1600</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1535</v>
+        <v>1601</v>
       </c>
       <c r="V423" s="6" t="s">
-        <v>1529</v>
+        <v>548</v>
       </c>
       <c r="W423" s="6">
         <v>99999999</v>
@@ -36667,12 +36636,6 @@
       </c>
       <c r="Z423" s="6">
         <v>51</v>
-      </c>
-      <c r="AA423" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AB423" s="6" t="s">
-        <v>1540</v>
       </c>
       <c r="AG423" s="6">
         <v>1</v>
@@ -36698,13 +36661,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1523</v>
+        <v>1602</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1524</v>
+        <v>1594</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1533</v>
+        <v>1603</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -36722,13 +36685,13 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1563</v>
+        <v>1604</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1536</v>
+        <v>1605</v>
       </c>
       <c r="V424" s="6" t="s">
-        <v>1529</v>
+        <v>548</v>
       </c>
       <c r="W424" s="6">
         <v>99999999</v>
@@ -36741,12 +36704,6 @@
       </c>
       <c r="Z424" s="6">
         <v>51</v>
-      </c>
-      <c r="AA424" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB424" s="6" t="s">
-        <v>1541</v>
       </c>
       <c r="AG424" s="6">
         <v>1</v>
@@ -36772,10 +36729,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36793,10 +36750,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36828,10 +36785,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36849,10 +36806,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36884,10 +36841,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36905,10 +36862,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -36940,10 +36897,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36961,10 +36918,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -36996,10 +36953,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -37017,10 +36974,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37052,13 +37009,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37076,13 +37033,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37120,13 +37077,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37144,10 +37101,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37188,13 +37145,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37212,10 +37169,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37256,13 +37213,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37280,10 +37237,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37324,13 +37281,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="54" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="H434" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I434" s="54" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="K434" s="54">
         <v>-31</v>
@@ -37348,10 +37305,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="54" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="V434" s="54" t="s">
         <v>551</v>
@@ -37389,13 +37346,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="54" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="H435" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I435" s="54" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="K435" s="54">
         <v>-31</v>
@@ -37413,10 +37370,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="54" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="V435" s="54" t="s">
         <v>551</v>
@@ -37454,13 +37411,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="54" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="H436" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I436" s="54" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="K436" s="54">
         <v>-31</v>
@@ -37478,10 +37435,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="54" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="V436" s="54" t="s">
         <v>551</v>
@@ -37519,13 +37476,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="54" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="H437" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I437" s="54" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="K437" s="54">
         <v>-31</v>
@@ -37543,10 +37500,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="54" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="V437" s="54" t="s">
         <v>551</v>
@@ -37584,13 +37541,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="54" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="H438" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I438" s="54" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="K438" s="54">
         <v>-31</v>
@@ -37608,10 +37565,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="54" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="V438" s="54" t="s">
         <v>551</v>
@@ -37649,13 +37606,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="54" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="H439" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I439" s="54" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="K439" s="54">
         <v>-31</v>
@@ -37673,10 +37630,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="54" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="V439" s="54" t="s">
         <v>551</v>
@@ -37714,13 +37671,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="54" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="H440" s="54" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="I440" s="54" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="K440" s="54">
         <v>-31</v>
@@ -37738,10 +37695,10 @@
         <v>99800</v>
       </c>
       <c r="P440" s="54" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="V440" s="54" t="s">
         <v>551</v>
@@ -38533,7 +38490,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>
